--- a/Datos/asistencias.xlsx
+++ b/Datos/asistencias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA3BF49-94DB-4140-BBC5-86C7EB3EF598}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF84CA59-30FE-4DE5-98E3-7644F0837A00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{AC6D7A93-2CAE-4333-9396-147BD4BDD461}"/>
   </bookViews>
@@ -526,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B919CA-52AB-47D8-82EC-6082FA6CEB4A}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -547,8 +547,11 @@
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -561,8 +564,11 @@
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -575,8 +581,11 @@
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -589,8 +598,11 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -603,8 +615,11 @@
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -617,8 +632,11 @@
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -631,8 +649,11 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -645,8 +666,11 @@
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -659,8 +683,11 @@
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -673,8 +700,11 @@
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -687,8 +717,11 @@
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -701,8 +734,11 @@
       <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -715,8 +751,11 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -729,8 +768,11 @@
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -743,8 +785,11 @@
       <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -757,8 +802,11 @@
       <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -771,8 +819,11 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -785,8 +836,11 @@
       <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -799,8 +853,11 @@
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -813,8 +870,11 @@
       <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -827,8 +887,11 @@
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -841,8 +904,11 @@
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -855,8 +921,11 @@
       <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -869,8 +938,11 @@
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -883,8 +955,11 @@
       <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -897,8 +972,11 @@
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -911,8 +989,11 @@
       <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -925,8 +1006,11 @@
       <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -939,8 +1023,11 @@
       <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -953,8 +1040,11 @@
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -967,8 +1057,11 @@
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -981,8 +1074,11 @@
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -995,8 +1091,11 @@
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1009,8 +1108,11 @@
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1023,8 +1125,11 @@
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1037,8 +1142,11 @@
       <c r="D36" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1051,8 +1159,11 @@
       <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -1065,8 +1176,11 @@
       <c r="D38" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -1079,8 +1193,11 @@
       <c r="D39" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1093,8 +1210,11 @@
       <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -1107,8 +1227,11 @@
       <c r="D41" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1121,8 +1244,11 @@
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1135,8 +1261,11 @@
       <c r="D43" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1149,8 +1278,11 @@
       <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -1163,8 +1295,11 @@
       <c r="D45" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -1177,8 +1312,11 @@
       <c r="D46" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1191,8 +1329,11 @@
       <c r="D47" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -1205,8 +1346,11 @@
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -1219,8 +1363,11 @@
       <c r="D49" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -1233,8 +1380,11 @@
       <c r="D50" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -1247,8 +1397,11 @@
       <c r="D51" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -1261,8 +1414,11 @@
       <c r="D52" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -1275,8 +1431,11 @@
       <c r="D53" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -1289,8 +1448,11 @@
       <c r="D54" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -1303,8 +1465,11 @@
       <c r="D55" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -1317,8 +1482,11 @@
       <c r="D56" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -1331,8 +1499,11 @@
       <c r="D57" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -1345,8 +1516,11 @@
       <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -1359,8 +1533,11 @@
       <c r="D59" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -1373,8 +1550,11 @@
       <c r="D60" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -1387,8 +1567,11 @@
       <c r="D61" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -1401,8 +1584,11 @@
       <c r="D62" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -1415,8 +1601,11 @@
       <c r="D63" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -1428,6 +1617,9 @@
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="E64">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
